--- a/EXAMPLE_PLATES.xlsx
+++ b/EXAMPLE_PLATES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabbr\Documents\Lavoro\PhD\Script e programmi\Generate MiSeq CSV\FINAL2.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabbr\Documents\Lavoro\PhD\Script e programmi\Generate MiSeq CSV\Generate-MiSeq-Manifest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F76FBBD-D615-4902-9E6D-68FD22EA0311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD5BF1-ACF2-47AB-8015-7766B3F1A7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate 4" sheetId="8" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1148,26 +1148,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,34 +1205,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,12 +1559,12 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I4" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2"/>
+    <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -1599,136 +1579,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>194</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1763,7 +1743,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1804,7 +1784,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1845,7 +1825,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1886,7 +1866,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1927,7 +1907,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1981,12 +1961,12 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -2001,371 +1981,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2383,173 +2363,173 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="2"/>
+    <col min="1" max="1" width="13.1640625" style="1"/>
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -2557,207 +2537,207 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2775,12 +2755,12 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H5" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
@@ -2795,371 +2775,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>332</v>
       </c>
     </row>
